--- a/py/ResultadoTATS.xlsx
+++ b/py/ResultadoTATS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\Desktop\Trabajo de Gob\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D429F2EB-9177-47AE-8442-B52A7FEB8204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCEFBD2-6F4E-49E5-8FCB-B924C5250200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2355" windowWidth="20640" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="78">
   <si>
     <t>Direcciones</t>
   </si>
@@ -79,16 +79,16 @@
     <t>Consejeria_Juridica</t>
   </si>
   <si>
-    <t>[427, 449, 458, 466, 467, 481, 522]</t>
-  </si>
-  <si>
-    <t>[11, 71, 127, 190, 241, 243, 260, 318, 319, 320, 333, 334, 344, 350, 352, 357, 367, 321, 383, 386, 400, 401, 402, 403, 409, 410, 422, 423, 452, 454, 461, 465, 476, 478, 503, 506, 517, 520]</t>
+    <t>[458, 466, 467, 481, 553]</t>
+  </si>
+  <si>
+    <t>[11, 71, 127, 190, 241, 243, 260, 318, 319, 320, 333, 334, 344, 350, 352, 357, 367, 321, 383, 386, 400, 401, 402, 403, 409, 410, 422, 423, 427, 449, 452, 454, 461, 465, 476, 478, 503, 506, 517, 520, 522]</t>
   </si>
   <si>
     <t>Contraloria_Municipal</t>
   </si>
   <si>
-    <t>[25, 266, 452, 453, 457, 462, 465, 513, 514]</t>
+    <t>[25, 266, 452, 453, 457, 462, 465, 513, 514, 544]</t>
   </si>
   <si>
     <t>[13, 21, 27, 55, 61, 63, 65, 92, 119, 136, 166, 190, 210, 242, 254, 261, 328, 329, 350, 356, 361, 408, 407, 434, 440, 441, 476, 486, 489, 493, 494, 495, 508, 515, 525]</t>
@@ -103,16 +103,19 @@
     <t>Defensoria_Municipal_de_los_Derechos_Humanos</t>
   </si>
   <si>
+    <t>[556]</t>
+  </si>
+  <si>
     <t>[190, 350, 453, 471, 476, 506, 517, 520]</t>
   </si>
   <si>
     <t>Desarrollo_Economico_Turistico_y_Artesanal</t>
   </si>
   <si>
-    <t>[466, 467, 509]</t>
-  </si>
-  <si>
-    <t>[73, 124, 141, 190, 206, 288, 350, 355, 386, 432, 433, 476]</t>
+    <t>[509]</t>
+  </si>
+  <si>
+    <t>[73, 124, 141, 190, 206, 288, 350, 355, 386, 432, 433, 466, 467, 476]</t>
   </si>
   <si>
     <t>Desarrollo_Social</t>
@@ -127,10 +130,10 @@
     <t>Desarrollo_Urbano_y_Metropolitano</t>
   </si>
   <si>
-    <t>[369, 476, 499, 531]</t>
-  </si>
-  <si>
-    <t>[11, 62, 78, 121, 123, 160, 161, 190, 236, 244, 251, 259, 267, 268, 293, 350, 371, 390, 433, 442]</t>
+    <t>[476, 499]</t>
+  </si>
+  <si>
+    <t>[11, 62, 78, 121, 123, 160, 161, 190, 236, 244, 251, 259, 267, 268, 293, 350, 371, 390, 433, 442, 531]</t>
   </si>
   <si>
     <t>Educacion</t>
@@ -160,7 +163,7 @@
     <t>Gobierno_por_Resultados</t>
   </si>
   <si>
-    <t>[282]</t>
+    <t>[282, 540, 562, 569]</t>
   </si>
   <si>
     <t>[6, 35, 37, 63, 83, 88, 146, 147, 190, 252, 266, 278, 350, 355, 381, 456, 476]</t>
@@ -190,19 +193,19 @@
     <t>OPDAPAS</t>
   </si>
   <si>
-    <t>[435, 519, 523]</t>
-  </si>
-  <si>
-    <t>[15, 56, 91, 102, 144, 148, 180, 190, 205, 269, 274, 279, 296, 350, 420, 421, 424, 436, 476, 490]</t>
+    <t>[435, 519, 523, 556, 563]</t>
+  </si>
+  <si>
+    <t>[15, 56, 91, 102, 144, 148, 160, 180, 190, 205, 269, 274, 279, 296, 350, 420, 421, 424, 436, 476, 490]</t>
   </si>
   <si>
     <t>Obras_Publicas</t>
   </si>
   <si>
-    <t>[166, 254, 361, 371, 473, 499]</t>
-  </si>
-  <si>
-    <t>[25, 154, 190, 244, 296, 350, 476]</t>
+    <t>[166, 254, 361, 371, 473]</t>
+  </si>
+  <si>
+    <t>[25, 154, 190, 244, 296, 350, 476, 499]</t>
   </si>
   <si>
     <t>Proteccion_Civil_y_Bomberos</t>
@@ -214,19 +217,19 @@
     <t>SMDIF</t>
   </si>
   <si>
-    <t>[506]</t>
-  </si>
-  <si>
-    <t>[6, 107, 114, 124, 132, 170, 190, 280, 306, 350, 371, 386, 411, 451, 470, 476]</t>
+    <t>[553]</t>
+  </si>
+  <si>
+    <t>[6, 107, 114, 124, 132, 170, 190, 280, 306, 350, 371, 386, 411, 451, 470, 476, 506, 536]</t>
   </si>
   <si>
     <t>Seguridad_Publica</t>
   </si>
   <si>
-    <t>[13, 34, 82, 167, 283, 321, 407, 417, 427, 429, 442, 452, 476, 496, 511, 520, 535]</t>
-  </si>
-  <si>
-    <t>[3, 4, 12, 16, 17, 18, 22, 36, 43, 64, 69, 90, 94, 97, 108, 122, 139, 152, 177, 182, 188, 190, 196, 211, 235, 244, 245, 249, 255, 290, 307, 350, 368, 372, 383, 389, 390, 398, 419, 430, 443, 455, 477, 479, 517]</t>
+    <t>[13, 34, 82, 167, 283, 321, 407, 417, 427, 429, 452, 476, 496, 511, 535, 554]</t>
+  </si>
+  <si>
+    <t>[3, 4, 12, 16, 17, 18, 22, 36, 43, 64, 69, 90, 94, 97, 108, 122, 139, 152, 177, 182, 188, 190, 196, 211, 235, 244, 245, 249, 255, 290, 307, 350, 368, 372, 383, 389, 390, 398, 419, 430, 442, 443, 455, 477, 479, 517, 520, 549]</t>
   </si>
   <si>
     <t>Servicios_Publicos</t>
@@ -241,10 +244,10 @@
     <t>Tesoreria</t>
   </si>
   <si>
-    <t>[317, 462, 510, 513, 524, 525, 540, 545, 547]</t>
-  </si>
-  <si>
-    <t>[11, 25, 26, 28, 29, 30, 32, 33, 41, 46, 47, 48, 49, 61, 65, 71, 72, 84, 86, 92, 98, 99, 100, 118, 119, 125, 128, 138, 139, 150, 152, 154, 160, 163, 164, 165, 166, 168, 176, 177, 180, 185, 186, 187, 189, 190, 194, 195, 196, 204, 205, 217, 228, 231, 238, 239, 240, 254, 258, 261, 266, 270, 271, 272, 279, 301, 328, 335, 346, 347, 348, 350, 361, 364, 365, 371, 372, 378, 379, 380, 407, 408, 412, 414, 415, 416, 424, 429, 430, 431, 434, 441, 444, 445, 446, 463, 464, 475, 476, 482, 483, 484, 508, 514, 515, 532, 533, 534, 544]</t>
+    <t>[510, 547, 556, 557, 574, 575]</t>
+  </si>
+  <si>
+    <t>[11, 25, 26, 28, 29, 30, 32, 33, 41, 46, 47, 48, 49, 61, 65, 71, 72, 84, 86, 92, 98, 99, 100, 118, 119, 125, 128, 138, 139, 150, 152, 154, 160, 163, 164, 165, 166, 168, 176, 177, 180, 185, 186, 187, 189, 190, 194, 195, 196, 204, 205, 217, 228, 231, 238, 239, 240, 254, 258, 261, 266, 270, 271, 272, 279, 301, 317, 328, 335, 346, 347, 348, 350, 361, 364, 365, 371, 372, 378, 379, 380, 407, 408, 412, 414, 415, 416, 424, 429, 430, 431, 434, 441, 444, 445, 446, 462, 463, 464, 475, 476, 482, 483, 484, 508, 513, 514, 515, 524, 525, 532, 533, 534, 540, 544, 545]</t>
   </si>
   <si>
     <t>Transparencia_y_Gobierno_Abierto</t>
@@ -269,6 +272,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -615,14 +619,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.7109375" customWidth="1"/>
-    <col min="6" max="6" width="76.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="63.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -674,7 +682,7 @@
         <v>10</v>
       </c>
       <c r="H2">
-        <v>5.788423153692615</v>
+        <v>5.5662188099808061</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -700,7 +708,7 @@
         <v>13</v>
       </c>
       <c r="H3">
-        <v>0.5988023952095809</v>
+        <v>0.57581573896353166</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -726,7 +734,7 @@
         <v>15</v>
       </c>
       <c r="H4">
-        <v>0.79840319361277434</v>
+        <v>0.76775431861804222</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -752,7 +760,7 @@
         <v>17</v>
       </c>
       <c r="H5">
-        <v>2.19560878243513</v>
+        <v>2.1113243761996161</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -760,16 +768,16 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E6">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
@@ -778,7 +786,7 @@
         <v>20</v>
       </c>
       <c r="H6">
-        <v>7.5848303393213579</v>
+        <v>7.8694817658349336</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -789,13 +797,13 @@
         <v>35</v>
       </c>
       <c r="C7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
@@ -804,7 +812,7 @@
         <v>23</v>
       </c>
       <c r="H7">
-        <v>6.9860279441117763</v>
+        <v>6.7178502879078703</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -830,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="H8">
-        <v>1.5968063872255489</v>
+        <v>1.535508637236084</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -841,53 +849,53 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H9">
-        <v>1.5968063872255489</v>
+        <v>1.535508637236084</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E10">
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H10">
-        <v>2.395209580838324</v>
+        <v>2.6871401151631482</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11">
         <v>6</v>
@@ -902,44 +910,44 @@
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H11">
-        <v>1.197604790419162</v>
+        <v>1.1516314779270631</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E12">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H12">
-        <v>3.992015968063872</v>
+        <v>4.0307101727447217</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -957,15 +965,15 @@
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H13">
-        <v>0.99800399201596801</v>
+        <v>0.95969289827255266</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -986,12 +994,12 @@
         <v>13</v>
       </c>
       <c r="H14">
-        <v>0.5988023952095809</v>
+        <v>0.57581573896353166</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -1009,15 +1017,15 @@
         <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H15">
-        <v>0.99800399201596801</v>
+        <v>0.95969289827255266</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B16">
         <v>6</v>
@@ -1032,44 +1040,44 @@
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H16">
-        <v>1.197604790419162</v>
+        <v>1.1516314779270631</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B17">
         <v>17</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D17">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="E17">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H17">
-        <v>3.3932135728542909</v>
+        <v>3.262955854126679</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18">
         <v>9</v>
@@ -1084,18 +1092,18 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H18">
-        <v>1.796407185628742</v>
+        <v>1.727447216890595</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19">
         <v>10</v>
@@ -1113,15 +1121,15 @@
         <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H19">
-        <v>1.996007984031936</v>
+        <v>1.9193857965451051</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B20">
         <v>26</v>
@@ -1139,67 +1147,67 @@
         <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H20">
-        <v>5.1896207584830334</v>
+        <v>4.9904030710172744</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E21">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H21">
-        <v>3.992015968063872</v>
+        <v>4.0307101727447217</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D22">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E22">
         <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H22">
-        <v>1.3972055888223549</v>
+        <v>1.535508637236084</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B23">
         <v>21</v>
@@ -1217,67 +1225,67 @@
         <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H23">
-        <v>4.1916167664670656</v>
+        <v>4.0307101727447217</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B24">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E24">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H24">
-        <v>3.1936127744510969</v>
+        <v>3.45489443378119</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B25">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C25">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D25">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E25">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H25">
-        <v>8.9820359281437128</v>
+        <v>9.2130518234165066</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B26">
         <v>23</v>
@@ -1292,44 +1300,44 @@
         <v>33</v>
       </c>
       <c r="F26" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H26">
-        <v>4.5908183632734527</v>
+        <v>4.4145873320537428</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B27">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C27">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D27">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E27">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F27" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H27">
-        <v>21.7564870259481</v>
+        <v>22.264875239923221</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B28">
         <v>5</v>
@@ -1347,10 +1355,10 @@
         <v>12</v>
       </c>
       <c r="G28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H28">
-        <v>0.99800399201596801</v>
+        <v>0.95969289827255266</v>
       </c>
     </row>
   </sheetData>
